--- a/expenseitems.xlsx
+++ b/expenseitems.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emad/projects/templates/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BCF20C-0D2A-FB40-9BB9-EE46A1F0E74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="4680" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>barcode</t>
   </si>
@@ -182,13 +188,16 @@
   </si>
   <si>
     <t>تجديد ترخيص البرامج السنوي</t>
+  </si>
+  <si>
+    <t>qty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,13 +260,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -295,7 +312,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -329,6 +346,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -363,9 +381,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -538,14 +557,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,10 +583,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -582,10 +606,13 @@
         <v>46</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>5000</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -602,10 +629,13 @@
         <v>47</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -622,10 +652,13 @@
         <v>48</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -642,10 +675,13 @@
         <v>49</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -662,10 +698,13 @@
         <v>50</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -682,10 +721,13 @@
         <v>51</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -702,10 +744,13 @@
         <v>52</v>
       </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -722,10 +767,13 @@
         <v>53</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -742,10 +790,13 @@
         <v>54</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -762,6 +813,9 @@
         <v>55</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>1200</v>
       </c>
     </row>

--- a/expenseitems.xlsx
+++ b/expenseitems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emad/projects/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BCF20C-0D2A-FB40-9BB9-EE46A1F0E74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2BFA2C-BC32-6F4B-A90B-E8EF274330FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="500" windowWidth="20420" windowHeight="13540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -249,11 +249,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,10 +570,15 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="8.83203125" style="2"/>
+    <col min="6" max="6" width="8.83203125" style="4"/>
+    <col min="7" max="7" width="8.83203125" style="6"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -582,240 +596,240 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
         <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
         <v>800</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
         <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
         <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
         <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
         <v>600</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
         <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
         <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
         <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
         <v>1200</v>
       </c>
     </row>
